--- a/Mandatory Information Sheet-Candidate.xlsx
+++ b/Mandatory Information Sheet-Candidate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b83ff7e479451708/Documents/Antal templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sukumarsoni/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AB90AD80-0D92-46B3-A1A5-C2E940FCEDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{529669D8-E839-4530-B5C4-57D9E6BD3F82}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED9B922-C3F0-3F4F-B115-A7812C9A5E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A75B84A5-C284-4F7D-A422-4E1C8DA1F82B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{A75B84A5-C284-4F7D-A422-4E1C8DA1F82B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <r>
       <t> </t>
@@ -252,6 +252,64 @@
   </si>
   <si>
     <t xml:space="preserve">Contributions </t>
+  </si>
+  <si>
+    <t>4 years 4months</t>
+  </si>
+  <si>
+    <t>contant learning</t>
+  </si>
+  <si>
+    <t>Backend Developer</t>
+  </si>
+  <si>
+    <t>Love to tackle real world problems using Data Structures , Algorithms and Computer Science Technologies</t>
+  </si>
+  <si>
+    <t>4years 4months</t>
+  </si>
+  <si>
+    <t>2months(30-45days)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>B-tech</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>14lakhs</t>
+  </si>
+  <si>
+    <t>2.5 lakhs(variable)</t>
+  </si>
+  <si>
+    <t>50k</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26 lakhs</t>
+  </si>
+  <si>
+    <t>1)Led client project team of 6 backend developer and delivered on time 
+2) Involved in different features development using apis, cloud, db like automating pipeline using api, dockerfile enrichments, onboarding large set of data, 
+top-botoom data mapping and vice-versa, registrations and invoice calculation etc.</t>
+  </si>
+  <si>
+    <t>1) Developed and designed single-click platform to deploy application on different cloud from source code location
+2) Developed and delivered Security management application portal for client 
+3) Developing service that Automates purchasing of goods and Services for retails shop without human intervention</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>tried to use server resources and written efficient code</t>
   </si>
 </sst>
 </file>
@@ -465,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,31 +565,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -547,6 +587,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,7 +628,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -855,7 +916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -865,213 +926,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E629B5BB-ECC8-4E91-9033-2282CECFC6A6}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="C8" s="2">
+        <v>7736690165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21"/>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="22"/>
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
       <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
       <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="C26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
       <c r="B27" s="7" t="s">
         <v>27</v>
       </c>
@@ -1079,6 +1182,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A7:B7"/>
@@ -1086,13 +1196,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
